--- a/individual_results/avey/261.xlsx
+++ b/individual_results/avey/261.xlsx
@@ -570,7 +570,7 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="I2" t="n">
         <v>1</v>
@@ -579,7 +579,7 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L2" t="n">
         <v>0.5</v>
@@ -643,7 +643,7 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="I3" t="n">
         <v>1</v>
@@ -652,7 +652,7 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="L3" t="n">
         <v>0.6666666666666666</v>
@@ -685,7 +685,7 @@
         <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="W3" t="n">
         <v>0.6666666666666666</v>
@@ -714,7 +714,7 @@
       </c>
       <c r="G4" t="inlineStr"/>
       <c r="H4" t="n">
-        <v>0.6666666666666666</v>
+        <v>0.5</v>
       </c>
       <c r="I4" t="n">
         <v>1</v>
@@ -722,7 +722,9 @@
       <c r="J4" t="n">
         <v>0.6666666666666666</v>
       </c>
-      <c r="K4" t="inlineStr"/>
+      <c r="K4" t="n">
+        <v>0.5</v>
+      </c>
       <c r="L4" t="n">
         <v>0.5714285714285715</v>
       </c>
@@ -746,7 +748,7 @@
       <c r="T4" t="inlineStr"/>
       <c r="U4" t="inlineStr"/>
       <c r="V4" t="n">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="W4" t="n">
         <v>0.6666666666666666</v>
@@ -775,7 +777,7 @@
       </c>
       <c r="G5" t="inlineStr"/>
       <c r="H5" t="n">
-        <v>0.6666666666666666</v>
+        <v>0.3846153846153846</v>
       </c>
       <c r="I5" t="n">
         <v>1</v>
@@ -783,7 +785,9 @@
       <c r="J5" t="n">
         <v>0.6666666666666666</v>
       </c>
-      <c r="K5" t="inlineStr"/>
+      <c r="K5" t="n">
+        <v>0.3846153846153846</v>
+      </c>
       <c r="L5" t="n">
         <v>0.625</v>
       </c>
@@ -807,7 +811,7 @@
       <c r="T5" t="inlineStr"/>
       <c r="U5" t="inlineStr"/>
       <c r="V5" t="n">
-        <v>1</v>
+        <v>0.7142857142857142</v>
       </c>
       <c r="W5" t="n">
         <v>0.6666666666666666</v>
@@ -838,7 +842,7 @@
         <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>0.5209090851403014</v>
+        <v>0.319393943239799</v>
       </c>
       <c r="I6" t="n">
         <v>0.8428282648809379</v>
@@ -847,7 +851,7 @@
         <v>0.6298989693877386</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>0.7452525342261976</v>
       </c>
       <c r="L6" t="n">
         <v>0.7895959410076381</v>
@@ -880,7 +884,7 @@
         <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>1.319393943239799</v>
+        <v>0.9467676761267002</v>
       </c>
       <c r="W6" t="n">
         <v>0.5741414090136012</v>
@@ -920,7 +924,7 @@
         <v>0</v>
       </c>
       <c r="K7" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L7" t="b">
         <v>0</v>
@@ -993,7 +997,7 @@
         <v>1</v>
       </c>
       <c r="K8" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L8" t="b">
         <v>1</v>
@@ -1066,7 +1070,7 @@
         <v>1</v>
       </c>
       <c r="K9" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L9" t="b">
         <v>1</v>
@@ -1132,7 +1136,9 @@
       <c r="J10" t="n">
         <v>2</v>
       </c>
-      <c r="K10" t="inlineStr"/>
+      <c r="K10" t="n">
+        <v>1</v>
+      </c>
       <c r="L10" t="n">
         <v>2</v>
       </c>
@@ -1179,7 +1185,7 @@
       </c>
       <c r="G11" t="inlineStr"/>
       <c r="H11" t="n">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="I11" t="n">
         <v>1</v>
@@ -1221,7 +1227,7 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="V11" t="n">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="W11" t="n">
         <v>1</v>
